--- a/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296D33F-9625-4FFF-976B-BD2E17D29F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B45F1-09CA-4B68-A2DD-4A3B459ECCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23685" yWindow="2820" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -153,22 +153,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B45F1-09CA-4B68-A2DD-4A3B459ECCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD2297-C4F6-4D5F-A849-B181C95EEA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,8 +142,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -1062,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ADD196-77D8-4991-8F1D-CBCA947E70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0977BF12-5075-489F-A52D-D37DDECE47CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,21 @@
         <row r="2">
           <cell r="B2">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -3387,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3439,7 +3454,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,99 +4139,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>18.309999999999999</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>18.79</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>22.38</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>24.35</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>25.01</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>20.48</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>22.13</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.36</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.59</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.01</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.49</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.14</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.29</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.49</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.6399999999999997</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.39</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.99</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.5500000000000007</v>
       </c>
     </row>
@@ -4225,99 +4240,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>24.41</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>18.39</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>16.53</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>17.43</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>16.59</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>24.63</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>25.36</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.1</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.52</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.87</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.04</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.34</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.42</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>11.75</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.38</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.29</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.55</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.95</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.94</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.7</v>
       </c>
     </row>
@@ -4326,99 +4341,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>23.32</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>20.5</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.12</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.83</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.97</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>16.63</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>13.89</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.68</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.98</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>0.99</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.59</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.19</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.72</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.29</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.82</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.82</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.04</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.49</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.09</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.49</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.09</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>14.86</v>
       </c>
     </row>
@@ -4427,99 +4442,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.49</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.48</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.39</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.26</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.59</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.19</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.19</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.68</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.99</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.19</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.68</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.01</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.2799999999999998</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>0.99</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.29</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>0.99</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.06</v>
       </c>
     </row>
@@ -4528,99 +4543,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.75</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>20.29</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.33</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.05</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>18.600000000000001</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.87</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.87</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.99</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.44</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.08</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.99</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.52</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.09</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.44</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>1.79</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3</v>
       </c>
     </row>
@@ -4747,99 +4762,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.58</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.58</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.55</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.55</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.555</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.3</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>54.376666666666665</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44.4</v>
       </c>
     </row>
@@ -4848,99 +4863,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.65</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.64</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.64</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>51.64</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44.4</v>
       </c>
     </row>
@@ -4949,99 +4964,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.4</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>42.4</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.58</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.58</v>
       </c>
     </row>
@@ -5050,99 +5065,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.4</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44.4</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>61.55</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>61.57</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>61.57</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>61.57</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>58.55</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.97</v>
       </c>
     </row>
@@ -5151,99 +5166,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>43.97</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>44</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>62.57</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>53.07</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>54.376666666666665</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.97</v>
       </c>
     </row>
@@ -5344,99 +5359,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>5.69</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.13</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>55.2</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>42.405000000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.13</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.13</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
     </row>
@@ -5445,99 +5460,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>31</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.01</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>53</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>53</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>53</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>20.57</v>
       </c>
     </row>
@@ -5546,99 +5561,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.13</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.505000000000003</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
     </row>
@@ -5647,99 +5662,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>25.02</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.02</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>25.02</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.02</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>25.02</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>55.2</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.406666666666666</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.58</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.41</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.01</v>
       </c>
     </row>
@@ -5748,99 +5763,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>17.87</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>28</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>28</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.62</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>55.2</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.62</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
       </c>
     </row>
@@ -6539,99 +6554,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.52</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.56</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.92</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.15</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.79</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.65</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.19</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.76</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.0500000000000007</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.66</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.8</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.82</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.56</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.0399999999999991</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.63</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.42</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.66</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.32</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.81</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.81</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>3.33</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.9700000000000006</v>
       </c>
     </row>
@@ -6640,99 +6655,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>11.27</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.24</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.3699999999999992</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.5399999999999991</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.84</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.93</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>17.93</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.6</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.8800000000000008</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.6300000000000008</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.71</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.97</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.08</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.13</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.4</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.84</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.6</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.7</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.8499999999999996</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.2300000000000004</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.38</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.8</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>2.09</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.33</v>
       </c>
     </row>
@@ -6741,99 +6756,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.88</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.98</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.64</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.72</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.64</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.72</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.23</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.19</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.72</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.56</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.75</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.9400000000000004</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.11</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.66</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.58</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.56</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.09</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.33</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>4.62</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.95</v>
       </c>
     </row>
@@ -6842,99 +6857,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>11.09</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>18.989999999999998</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.62</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.62</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.62</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.62</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.42</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.72</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.96</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.46</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.48</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.4</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.4600000000000009</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.4600000000000009</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.89</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.8699999999999992</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.06</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.06</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.75</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.17</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.6</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.72</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.26</v>
       </c>
     </row>
@@ -6943,99 +6958,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.58</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.4499999999999993</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.33</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.8</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.8</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.25</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.77</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.4499999999999993</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.2200000000000006</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.6199999999999992</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.09</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.43</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.85</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.44</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.79</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.14</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.51</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.17</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.6</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.29</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.62</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.53</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.99</v>
       </c>
     </row>
@@ -7162,99 +7177,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36.4</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36.4</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36.4</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36.4</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>42</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>38</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>38</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
     </row>
@@ -7263,99 +7278,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
     </row>
@@ -7364,99 +7379,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>69.040000000000006</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>38</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>38</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>95</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
     </row>
@@ -7465,99 +7480,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>35.69</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>38.4</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.12</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.043333333333329</v>
       </c>
     </row>
@@ -7566,99 +7581,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.66</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.22</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>64.64</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>36</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>37.4</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.58</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.56</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>46.69</v>
       </c>
     </row>
@@ -7671,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FE5CD-ED48-4723-8CF7-0EF6E3231B7D}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7759,99 +7774,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>39.4</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.7575</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>20.36</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>60</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.01</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.02</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.02</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
     </row>
@@ -7860,99 +7875,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.74</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.606666666666662</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.7575</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.98</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>28</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
     </row>
@@ -7961,99 +7976,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>43.2</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>43.2</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>39.4</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>39.4</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>39.4</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
     </row>
@@ -8062,99 +8077,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.6</v>
       </c>
       <c r="C5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>43.2</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>37.466666666666669</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.57</v>
       </c>
       <c r="F5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>39.4</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="J5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.89</v>
       </c>
       <c r="L5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>35.503333333333337</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="S5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="T5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="U5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="W5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>27.98</v>
       </c>
       <c r="X5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>22.02</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
     </row>
@@ -8163,99 +8178,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="C6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>18.71</v>
       </c>
       <c r="D6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>43.2</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.57</v>
       </c>
       <c r="F6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.606666666666662</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.05</v>
       </c>
       <c r="I6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.05</v>
       </c>
       <c r="J6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.05</v>
       </c>
       <c r="K6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>18.71</v>
       </c>
       <c r="L6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>18.71</v>
       </c>
       <c r="M6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.03</v>
       </c>
       <c r="N6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.5</v>
       </c>
       <c r="O6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="P6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="Q6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="R6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="S6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="T6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="U6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.03</v>
       </c>
       <c r="V6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="W6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
       <c r="X6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.03</v>
       </c>
       <c r="Y6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>50.4</v>
       </c>
     </row>
